--- a/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -111,12 +111,135 @@
     <t>次数</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>破魔</t>
+  </si>
+  <si>
+    <t>获得法术防御，数值为物理攻击*0.5，最多不超过300点</t>
+  </si>
+  <si>
+    <t>暗暮</t>
+  </si>
+  <si>
+    <t>受到致命伤害时，进入短暂无敌状态1s。冷却时间120秒</t>
+  </si>
+  <si>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>增加40%物理穿透</t>
+  </si>
+  <si>
+    <t>重伤</t>
+  </si>
+  <si>
+    <t>降低敌方50%回血</t>
+  </si>
+  <si>
+    <t>破败</t>
+  </si>
+  <si>
+    <t>攻击敌人，每次造成8%的额外伤害，这个效果对野怪造成80点伤害</t>
+  </si>
+  <si>
+    <t>切割</t>
+  </si>
+  <si>
+    <t>增加20%物理穿透</t>
+  </si>
+  <si>
+    <t>破军</t>
+  </si>
+  <si>
+    <t>对生命值低于50%的敌人造成额外30%伤害</t>
+  </si>
+  <si>
+    <t>法力源泉</t>
+  </si>
+  <si>
+    <t>每秒恢复1%的法力值，如果法力值已满则恢复1%的生命值</t>
+  </si>
+  <si>
+    <t>虚无</t>
+  </si>
+  <si>
+    <t>增加40%法术穿透</t>
+  </si>
+  <si>
+    <t>回响</t>
+  </si>
+  <si>
+    <t>造成额外伤害100+0.4*法术攻击</t>
+  </si>
+  <si>
+    <t>毁灭</t>
+  </si>
+  <si>
+    <t>法术攻击提升35%</t>
+  </si>
+  <si>
+    <t>折磨</t>
+  </si>
+  <si>
+    <t>技能命中后每0.5秒造成当前生命值的3%的法术伤害，持续2秒。冷却时间2秒</t>
+  </si>
+  <si>
+    <t>英勇</t>
+  </si>
+  <si>
+    <t>等级提升后会恢复30%的生命值和20%的法力值</t>
+  </si>
+  <si>
+    <t>守护</t>
+  </si>
+  <si>
+    <t>获得额外的物理和法术防御，数值等于法术攻击*0.4，最多不超过250点</t>
+  </si>
+  <si>
+    <t>月之守护</t>
+  </si>
+  <si>
+    <t>获取主动技能。使用期间持续1.5s无敌。冷却时间90s</t>
+  </si>
+  <si>
+    <t>嗜血</t>
+  </si>
+  <si>
+    <t>增加25%的法术吸血</t>
+  </si>
+  <si>
+    <t>血怒</t>
+  </si>
+  <si>
+    <t>获得主动技能，获得自身生命值40%的护盾，持续4秒，冷却60秒</t>
+  </si>
+  <si>
+    <t>荆棘</t>
+  </si>
+  <si>
+    <t>收到物理伤害时会将伤害的20%以法术伤害返还</t>
+  </si>
+  <si>
+    <t>迷雾</t>
+  </si>
+  <si>
+    <t>脱战三秒后获得一个吸收（200+英雄等级*120）点的法术伤害的护盾</t>
+  </si>
+  <si>
+    <t>复生</t>
+  </si>
+  <si>
+    <t>死亡后2秒原地复活，获得英雄生命值30%的生命，冷却时间150秒.每局最多触发2次</t>
+  </si>
+  <si>
     <t>狂暴</t>
   </si>
   <si>
-    <t>英勇</t>
-  </si>
-  <si>
     <t>蝰蛇守护</t>
   </si>
   <si>
@@ -139,15 +262,6 @@
   </si>
   <si>
     <t>治愈</t>
-  </si>
-  <si>
-    <t>定身</t>
-  </si>
-  <si>
-    <t>金身</t>
-  </si>
-  <si>
-    <t>名刀</t>
   </si>
 </sst>
 </file>
@@ -156,9 +270,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -169,10 +283,124 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,88 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -274,45 +420,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -333,6 +447,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,7 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,13 +531,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,145 +597,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,17 +645,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -558,6 +670,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,33 +730,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,15 +1240,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="63" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:10">
+    <row r="1" ht="45" customHeight="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1165,421 +1282,581 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>120000</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>120000</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>-5</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>20000</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>60000</v>
       </c>
-      <c r="I5">
+      <c r="I25">
         <v>1000</v>
       </c>
-      <c r="J5">
+      <c r="J25">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I26">
         <v>2000</v>
       </c>
-      <c r="J6">
+      <c r="J26">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>20000</v>
       </c>
-      <c r="I7">
+      <c r="I27">
         <v>2000</v>
       </c>
-      <c r="J7">
+      <c r="J27">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>-10</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H28">
         <v>20000</v>
       </c>
-      <c r="I8">
+      <c r="I28">
         <v>2000</v>
       </c>
-      <c r="J8">
+      <c r="J28">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>30000</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>-20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>30000</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>30000</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-20</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>30000</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>30000</v>
-      </c>
-      <c r="I11">
+      <c r="I31">
         <v>2000</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5000</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>2000</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="J31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="buffer配置表" sheetId="1" r:id="rId1"/>
@@ -270,8 +270,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -283,6 +283,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -291,16 +359,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,66 +375,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +412,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -396,37 +427,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -447,13 +447,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,19 +543,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,145 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,11 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,6 +661,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,21 +704,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -713,21 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -738,6 +729,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -746,10 +746,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1319,6 +1319,12 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
@@ -1330,6 +1336,12 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
@@ -1341,6 +1353,12 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
@@ -1352,6 +1370,12 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
@@ -1363,6 +1387,12 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
@@ -1374,6 +1404,12 @@
       <c r="B8" t="s">
         <v>24</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="K8" t="s">
         <v>25</v>
       </c>
@@ -1385,6 +1421,12 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="K9" t="s">
         <v>27</v>
       </c>
@@ -1396,6 +1438,12 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="K10" t="s">
         <v>29</v>
       </c>
@@ -1407,6 +1455,12 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -1424,6 +1478,12 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="K12" t="s">
         <v>33</v>
       </c>
@@ -1435,6 +1495,12 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="H13">
         <v>2</v>
       </c>
@@ -1455,6 +1521,12 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="H14">
         <v>3</v>
       </c>
@@ -1469,6 +1541,12 @@
       <c r="B15" t="s">
         <v>38</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
@@ -1480,6 +1558,12 @@
       <c r="B16" t="s">
         <v>40</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
@@ -1491,6 +1575,12 @@
       <c r="B17" t="s">
         <v>42</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="K17" t="s">
         <v>43</v>
       </c>
@@ -1502,6 +1592,12 @@
       <c r="B18" t="s">
         <v>44</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="K18" t="s">
         <v>45</v>
       </c>
@@ -1513,6 +1609,12 @@
       <c r="B19" t="s">
         <v>46</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="K19" t="s">
         <v>47</v>
       </c>
@@ -1524,6 +1626,12 @@
       <c r="B20" t="s">
         <v>48</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="K20" t="s">
         <v>49</v>
       </c>
@@ -1534,6 +1642,12 @@
       </c>
       <c r="B21" t="s">
         <v>50</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>51</v>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/buffer.xlsx
@@ -159,8 +159,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,17 +171,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +208,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,104 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +335,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,163 +497,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,26 +529,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,23 +586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,8 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +611,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,10 +634,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +646,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,10 +1105,13 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="15.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1302,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="1">
         <v>2000</v>
@@ -1335,13 +1338,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="1">
         <v>2000</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1"/>
     </row>
